--- a/evox/unit_test/test/igd_at_10.0s.xlsx
+++ b/evox/unit_test/test/igd_at_10.0s.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,15 +454,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>EMCMO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>GMPEA2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>NSGA2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PPS</t>
         </is>
@@ -476,27 +481,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.02700 (0.00169)</t>
+          <t>0.02522 (0.00104)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.44269 (0.02926)</t>
+          <t>0.40153 (0.06164)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00295 (0.00070)</t>
+          <t>0.01996 (0.00145)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.02913 (0.00161)</t>
+          <t>0.00285 (0.00024)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.63232 (0.03004)</t>
+          <t>0.02866 (0.00131)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.37932 (0.30861)</t>
         </is>
       </c>
     </row>
@@ -508,27 +518,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.97615 (0.02987)</t>
+          <t>0.97927 (0.02532)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.95950 (0.31916)</t>
+          <t>5.12966 (0.76748)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00075 (0.00001)</t>
+          <t>0.98615 (0.01901)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.86533 (0.08003)</t>
+          <t>0.00072 (0.00001)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.09230 (0.08104)</t>
+          <t>0.83420 (0.07406)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.07356 (0.08882)</t>
         </is>
       </c>
     </row>
@@ -540,27 +555,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.46122 (0.00830)</t>
+          <t>0.46854 (0.00997)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.79684 (0.52482)</t>
+          <t>4.68123 (1.32369)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00253 (0.00004)</t>
+          <t>0.46219 (0.00426)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.60062 (0.05926)</t>
+          <t>0.00260 (0.00003)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.06566 (0.06763)</t>
+          <t>0.56285 (0.06121)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.10475 (0.09988)</t>
         </is>
       </c>
     </row>
@@ -572,27 +592,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.21959 (0.06258)</t>
+          <t>0.22982 (0.04692)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.84468 (0.51108)</t>
+          <t>3.66666 (0.52166)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00310 (0.00003)</t>
+          <t>0.25367 (0.02458)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.48362 (0.10063)</t>
+          <t>0.00310 (0.00007)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.00294 (0.00028)</t>
+          <t>0.49358 (0.09369)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.00285 (0.00043)</t>
         </is>
       </c>
     </row>
@@ -604,27 +629,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9.11583 (1.73369)</t>
+          <t>8.39524 (1.00680)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.10710 (0.69971)</t>
+          <t>8.40379 (0.62346)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.03782 (0.00053)</t>
+          <t>8.71970 (1.99504)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.10077 (0.28363)</t>
+          <t>0.03565 (0.00062)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.03508 (0.00008)</t>
+          <t>1.15976 (0.24082)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.03499 (0.00008)</t>
         </is>
       </c>
     </row>
@@ -636,27 +666,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8.93912 (1.03270)</t>
+          <t>9.10328 (1.31935)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.03329 (0.95070)</t>
+          <t>8.23509 (0.62146)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.02728 (0.00008)</t>
+          <t>7.97552 (1.60362)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.83621 (0.31291)</t>
+          <t>0.02708 (0.00003)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.03541 (0.00013)</t>
+          <t>1.11814 (0.25675)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.03540 (0.00014)</t>
         </is>
       </c>
     </row>
@@ -668,27 +703,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.01096 (0.00092)</t>
+          <t>0.01202 (0.00068)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.22776 (0.05124)</t>
+          <t>0.17595 (0.04643)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00233 (0.00011)</t>
+          <t>0.00996 (0.00035)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.02498 (0.00096)</t>
+          <t>0.00297 (0.00046)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.21959 (0.26586)</t>
+          <t>0.02303 (0.00111)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.34513 (0.27942)</t>
         </is>
       </c>
     </row>
@@ -700,27 +740,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.01295 (0.00136)</t>
+          <t>0.01113 (0.00094)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.03812 (0.00284)</t>
+          <t>0.04344 (0.00401)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.01347 (0.00868)</t>
+          <t>0.00951 (0.00036)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.03914 (0.00563)</t>
+          <t>0.00218 (0.00046)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.68205 (0.00015)</t>
+          <t>0.03632 (0.00582)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.67920 (0.00436)</t>
         </is>
       </c>
     </row>
@@ -732,27 +777,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.01227 (0.00116)</t>
+          <t>0.01228 (0.00139)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.04539 (0.00672)</t>
+          <t>0.04764 (0.00412)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00474 (0.00179)</t>
+          <t>0.00975 (0.00097)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.03859 (0.00766)</t>
+          <t>0.00430 (0.00243)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.66754 (0.00320)</t>
+          <t>0.03995 (0.00384)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.66812 (0.00989)</t>
         </is>
       </c>
     </row>
@@ -764,27 +814,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.39382 (0.07142)</t>
+          <t>0.37726 (0.06170)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10.43762 (1.13898)</t>
+          <t>11.09861 (0.55492)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00935 (0.00801)</t>
+          <t>0.33256 (0.05369)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.01101 (0.26081)</t>
+          <t>0.00607 (0.00324)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.00139 (0.00013)</t>
+          <t>1.13311 (0.18494)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.00126 (0.00006)</t>
         </is>
       </c>
     </row>
@@ -796,27 +851,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.41689 (0.00713)</t>
+          <t>0.42957 (0.01435)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10.82663 (0.95157)</t>
+          <t>9.55945 (1.39959)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00456 (0.00127)</t>
+          <t>0.44315 (0.01877)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.62685 (0.36109)</t>
+          <t>0.00280 (0.00097)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.00113 (0.00006)</t>
+          <t>0.51079 (0.09231)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.00102 (0.00007)</t>
         </is>
       </c>
     </row>
@@ -828,27 +888,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.02187 (0.01376)</t>
+          <t>0.02481 (0.01453)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8.72703 (1.46787)</t>
+          <t>9.61594 (1.20182)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.04283 (0.04080)</t>
+          <t>0.01628 (0.01191)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.86592 (0.66870)</t>
+          <t>0.04535 (0.03213)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.08967 (0.00987)</t>
+          <t>0.43741 (0.27981)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.10592 (0.02608)</t>
         </is>
       </c>
     </row>
@@ -860,27 +925,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.10556 (0.17513)</t>
+          <t>0.28481 (0.19949)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11.39664 (1.21255)</t>
+          <t>10.87041 (1.38991)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.04837 (0.04269)</t>
+          <t>0.20251 (0.18121)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.58580 (0.21319)</t>
+          <t>0.03166 (0.02327)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.07509 (0.03416)</t>
+          <t>0.55622 (0.08941)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.07472 (0.04181)</t>
         </is>
       </c>
     </row>
@@ -892,27 +962,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.61585 (0.00582)</t>
+          <t>0.62166 (0.00660)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6.22916 (0.91429)</t>
+          <t>5.44172 (0.63753)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.00090 (0.00014)</t>
+          <t>0.61967 (0.00900)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.60909 (0.01579)</t>
+          <t>0.00074 (0.00004)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.36742 (0.00003)</t>
+          <t>0.61011 (0.01546)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.36740 (0.00002)</t>
         </is>
       </c>
     </row>
@@ -927,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,45 +1048,60 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>EMCMO_Mean</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>EMCMO_Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>EMCMO_Runs</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>GMPEA2_Mean</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>GMPEA2_Std</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>GMPEA2_Runs</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>NSGA2_Mean</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>NSGA2_Std</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>NSGA2_Runs</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>PPS_Mean</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>PPS_Std</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>PPS_Runs</t>
         </is>
@@ -1024,48 +1114,57 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0269959345459938</v>
+        <v>0.02521666251122951</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001686480327091689</v>
+        <v>0.001042681454501889</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4426911354064941</v>
+        <v>0.4015300750732422</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02926079494444302</v>
+        <v>0.06164323789900795</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002951126405969262</v>
+        <v>0.01996184699237347</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006950462305192559</v>
+        <v>0.001448762376303683</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02912717796862125</v>
+        <v>0.002854834962636233</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001606650305602329</v>
+        <v>0.0002433777403072972</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.632317328453064</v>
+        <v>0.02865700162947178</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03004240013906058</v>
+        <v>0.001308487323502963</v>
       </c>
       <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3793150107376277</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.3086079015886122</v>
+      </c>
+      <c r="S2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1076,48 +1175,57 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9761453747749329</v>
+        <v>0.9792732477188111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02986896554046775</v>
+        <v>0.02531736389073158</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>4.95949649810791</v>
+        <v>5.129658889770508</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3191573662002578</v>
+        <v>0.7674848610383745</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007513625780120492</v>
+        <v>0.9861522793769837</v>
       </c>
       <c r="I3" t="n">
-        <v>9.808017768009037e-06</v>
+        <v>0.01901264676073326</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8653276205062866</v>
+        <v>0.0007153222570195795</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08002734242327364</v>
+        <v>7.534012884963681e-06</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09230497118551284</v>
+        <v>0.8341999530792237</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08103944961641975</v>
+        <v>0.07406421124517702</v>
       </c>
       <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.07355670765973628</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.08881502142295701</v>
+      </c>
+      <c r="S3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1128,48 +1236,57 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4612244367599487</v>
+        <v>0.4685392916202545</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00829944241162367</v>
+        <v>0.009967742158058858</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>5.796838855743408</v>
+        <v>4.681234407424927</v>
       </c>
       <c r="F4" t="n">
-        <v>0.524820425149655</v>
+        <v>1.323685336866306</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002530928794294596</v>
+        <v>0.462185674905777</v>
       </c>
       <c r="I4" t="n">
-        <v>3.553923087240548e-05</v>
+        <v>0.004255938890545511</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6006245970726013</v>
+        <v>0.002604237804189324</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0592614452310417</v>
+        <v>3.262497698161479e-05</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06565610151737929</v>
+        <v>0.562854015827179</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0676343179132725</v>
+        <v>0.06120657053715008</v>
       </c>
       <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.1047476457897574</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.09987711450624835</v>
+      </c>
+      <c r="S4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1180,48 +1297,57 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2195909261703491</v>
+        <v>0.2298202723264694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06257542836588086</v>
+        <v>0.04692116036088669</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>5.844680213928223</v>
+        <v>3.666661596298218</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5110830279988732</v>
+        <v>0.5216599942789369</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003101857053115964</v>
+        <v>0.2536721497774124</v>
       </c>
       <c r="I5" t="n">
-        <v>2.565150327560271e-05</v>
+        <v>0.02457975869321111</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4836200892925263</v>
+        <v>0.003101619426161051</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1006318135354718</v>
+        <v>7.077124141864479e-05</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002942502219229937</v>
+        <v>0.4935760915279389</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0002811135929645431</v>
+        <v>0.09369149082722883</v>
       </c>
       <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.002848754497244954</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0004262079825742331</v>
+      </c>
+      <c r="S5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1232,48 +1358,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.115829086303711</v>
+        <v>8.395244407653809</v>
       </c>
       <c r="C6" t="n">
-        <v>1.733691980629109</v>
+        <v>1.006801390341431</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>8.107096958160401</v>
+        <v>8.403787803649902</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6997106386163068</v>
+        <v>0.623456578264389</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03781724646687508</v>
+        <v>8.719701766967773</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0005345336410495763</v>
+        <v>1.995043147491019</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.100765001773834</v>
+        <v>0.0356458455324173</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2836268107284851</v>
+        <v>0.0006190188998885437</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03508226796984672</v>
+        <v>1.159763443470001</v>
       </c>
       <c r="O6" t="n">
-        <v>8.104237148946599e-05</v>
+        <v>0.2408159195067375</v>
       </c>
       <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.03498747646808624</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8.439804931741083e-05</v>
+      </c>
+      <c r="S6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1284,48 +1419,57 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.939119052886962</v>
+        <v>9.103282928466797</v>
       </c>
       <c r="C7" t="n">
-        <v>1.032698840229594</v>
+        <v>1.319351561464849</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>9.033288955688477</v>
+        <v>8.235086917877197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9507012729808739</v>
+        <v>0.6214593676274781</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02727760188281536</v>
+        <v>7.975516033172608</v>
       </c>
       <c r="I7" t="n">
-        <v>8.391557932061084e-05</v>
+        <v>1.603619816726465</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8362149357795715</v>
+        <v>0.02707537971436978</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3129052681855799</v>
+        <v>3.274246193318078e-05</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03541029766201973</v>
+        <v>1.11814112663269</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001329509128076973</v>
+        <v>0.2567521338739377</v>
       </c>
       <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.03539549335837364</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0001441404785753571</v>
+      </c>
+      <c r="S7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1336,48 +1480,57 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01095623373985291</v>
+        <v>0.01202478706836701</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009207804390286769</v>
+        <v>0.0006778360708853107</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.227764755487442</v>
+        <v>0.1759452521800995</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05123664197216078</v>
+        <v>0.04643255290569912</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002329346723854542</v>
+        <v>0.009960446134209633</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001071578138466011</v>
+        <v>0.0003523426090175556</v>
       </c>
       <c r="J8" t="n">
         <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02497972659766674</v>
+        <v>0.002968677785247564</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009571550902316842</v>
+        <v>0.0004608113457548316</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2195917846634984</v>
+        <v>0.02303292602300644</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2658551373032436</v>
+        <v>0.001105730543383202</v>
       </c>
       <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.3451302540488541</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.2794229082693453</v>
+      </c>
+      <c r="S8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1388,48 +1541,57 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01294795330613852</v>
+        <v>0.01112763937562704</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001356395463223586</v>
+        <v>0.0009436213619753591</v>
       </c>
       <c r="D9" t="n">
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03812474831938743</v>
+        <v>0.04343974441289902</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002835926385603412</v>
+        <v>0.00401023989159472</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01346764201298356</v>
+        <v>0.0095060708001256</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008678672306511289</v>
+        <v>0.0003597791154573003</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03913716226816177</v>
+        <v>0.00217602273914963</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005632443591567544</v>
+        <v>0.0004586085197979118</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6820451974868774</v>
+        <v>0.03632018119096756</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0001496572364865294</v>
+        <v>0.005815651366587737</v>
       </c>
       <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.679198145866394</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.004355690276324912</v>
+      </c>
+      <c r="S9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1440,48 +1602,57 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01226640921086073</v>
+        <v>0.01228477172553539</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001162694333975831</v>
+        <v>0.001385856431241984</v>
       </c>
       <c r="D10" t="n">
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0453864797949791</v>
+        <v>0.04764378964900971</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006724276352794041</v>
+        <v>0.004123093658055203</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004741512797772884</v>
+        <v>0.009753453731536865</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001794745418235996</v>
+        <v>0.0009703293138998341</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03859363049268723</v>
+        <v>0.004304821649566293</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007658178184418933</v>
+        <v>0.002429029014193622</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.667535936832428</v>
+        <v>0.03995410054922104</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003204282806657662</v>
+        <v>0.003839974005484214</v>
       </c>
       <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.6681171774864196</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.009888475617593739</v>
+      </c>
+      <c r="S10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1492,48 +1663,57 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3938248515129089</v>
+        <v>0.3772575438022613</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07142030159570922</v>
+        <v>0.06169676655011987</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>10.43761901855469</v>
+        <v>11.09861488342285</v>
       </c>
       <c r="F11" t="n">
-        <v>1.138981810143325</v>
+        <v>0.5549194894401748</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>0.009352036844938993</v>
+        <v>0.3325624763965607</v>
       </c>
       <c r="I11" t="n">
-        <v>0.008010022547039298</v>
+        <v>0.05369076939037135</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>1.011008059978485</v>
+        <v>0.006068343576043844</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2608085625783386</v>
+        <v>0.003242551801980781</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001389878732152283</v>
+        <v>1.133105134963989</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0001274279566574714</v>
+        <v>0.1849423598660828</v>
       </c>
       <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.001260776678100228</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5.597545110820798e-05</v>
+      </c>
+      <c r="S11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1544,48 +1724,57 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4168865263462067</v>
+        <v>0.4295675098896027</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007134393981792856</v>
+        <v>0.01434866508155702</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>10.82662563323975</v>
+        <v>9.559450149536133</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9515688504256309</v>
+        <v>1.399594388886367</v>
       </c>
       <c r="G12" t="n">
         <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004558140458539128</v>
+        <v>0.4431508660316467</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001265992543313012</v>
+        <v>0.01876679878087203</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6268526792526246</v>
+        <v>0.002803653990849852</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3610937125041623</v>
+        <v>0.000969418192387353</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.001131247892044485</v>
+        <v>0.5107875823974609</v>
       </c>
       <c r="O12" t="n">
-        <v>6.008232517767126e-05</v>
+        <v>0.09231020513463969</v>
       </c>
       <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.001018307742197067</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6.955502387414181e-05</v>
+      </c>
+      <c r="S12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1596,48 +1785,57 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02187266936525702</v>
+        <v>0.02480952478945255</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01375823630547283</v>
+        <v>0.01452776532923901</v>
       </c>
       <c r="D13" t="n">
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>8.727031421661376</v>
+        <v>9.615943717956544</v>
       </c>
       <c r="F13" t="n">
-        <v>1.467866460851062</v>
+        <v>1.201819589762545</v>
       </c>
       <c r="G13" t="n">
         <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0428257828578353</v>
+        <v>0.01628313879482448</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04080262821415154</v>
+        <v>0.01191497229598978</v>
       </c>
       <c r="J13" t="n">
         <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8659186482429504</v>
+        <v>0.04535202304832638</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6687014182554156</v>
+        <v>0.03212583392568055</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.08966991305351257</v>
+        <v>0.4374067068099975</v>
       </c>
       <c r="O13" t="n">
-        <v>0.009873097573865036</v>
+        <v>0.2798061137771227</v>
       </c>
       <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.1059220694005489</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.02608086733583905</v>
+      </c>
+      <c r="S13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1648,48 +1846,57 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.105555135011673</v>
+        <v>0.2848136052489281</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1751272084174163</v>
+        <v>0.1994926297090818</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>11.39664459228516</v>
+        <v>10.87041435241699</v>
       </c>
       <c r="F14" t="n">
-        <v>1.212545779608932</v>
+        <v>1.389913541932193</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04837123416364193</v>
+        <v>0.2025124602019787</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04269073228131005</v>
+        <v>0.1812082771057319</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5858002662658691</v>
+        <v>0.03165875095874071</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2131860842223079</v>
+        <v>0.02326540038284896</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.07508987784385682</v>
+        <v>0.5562223374843598</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03415993510073276</v>
+        <v>0.08941270558076991</v>
       </c>
       <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.07471892770845442</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.04180577999793657</v>
+      </c>
+      <c r="S14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1700,48 +1907,57 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6158517599105835</v>
+        <v>0.6216559410095215</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005820992017729263</v>
+        <v>0.006601288576118474</v>
       </c>
       <c r="D15" t="n">
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>6.229160404205322</v>
+        <v>5.441720867156983</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9142931112128202</v>
+        <v>0.637525763801025</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008980915648862719</v>
+        <v>0.6196686148643493</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000138223811369413</v>
+        <v>0.009004639789728213</v>
       </c>
       <c r="J15" t="n">
         <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6090855002403259</v>
+        <v>0.0007401292910799384</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01578507651757466</v>
+        <v>3.884575860193957e-05</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.367421567440033</v>
+        <v>0.6101141810417176</v>
       </c>
       <c r="O15" t="n">
-        <v>3.441560008242502e-05</v>
+        <v>0.01546022482294148</v>
       </c>
       <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3674022078514099</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.597305061676944e-05</v>
+      </c>
+      <c r="S15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1756,7 +1972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1824,22 +2040,22 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.52350473927467</v>
+        <v>1.49820843808619</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01095623373985291</v>
+        <v>0.01112763937562704</v>
       </c>
       <c r="F2" t="n">
-        <v>9.115829086303711</v>
+        <v>9.103282928466797</v>
       </c>
       <c r="G2" t="n">
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1855,13 +2071,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>5.865174976470215</v>
+        <v>5.526509460487536</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03812474831938743</v>
+        <v>0.04343974441289902</v>
       </c>
       <c r="F3" t="n">
-        <v>11.39664459228516</v>
+        <v>11.09861488342285</v>
       </c>
       <c r="G3" t="n">
         <v>70</v>
@@ -1876,7 +2092,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GMPEA2</t>
+          <t>EMCMO</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1886,28 +2102,28 @@
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01435527932896678</v>
+        <v>1.432899091296297</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0007513625780120492</v>
+        <v>0.0095060708001256</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04837123416364193</v>
+        <v>8.719701766967773</v>
       </c>
       <c r="G4" t="n">
         <v>70</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NSGA2</t>
+          <t>GMPEA2</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1917,28 +2133,28 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5512182211237294</v>
+        <v>0.01200497590969982</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02497972659766674</v>
+        <v>0.0007153222570195795</v>
       </c>
       <c r="F5" t="n">
-        <v>1.100765001773834</v>
+        <v>0.04535202304832638</v>
       </c>
       <c r="G5" t="n">
         <v>70</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PPS</t>
+          <t>NSGA2</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1948,21 +2164,52 @@
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2119706337822469</v>
+        <v>0.5388667701876589</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001131247892044485</v>
+        <v>0.02303292602300644</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6820451974868774</v>
+        <v>1.159763443470001</v>
       </c>
       <c r="G6" t="n">
         <v>70</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2052584968066575</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001018307742197067</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.679198145866394</v>
+      </c>
+      <c r="G7" t="n">
+        <v>70</v>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -1977,7 +2224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2029,10 +2276,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.002951126405969262</v>
+        <v>0.002854834962636233</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0006950462305192559</v>
+        <v>0.0002433777403072972</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -2049,14 +2296,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CCMO</t>
+          <t>EMCMO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0269959345459938</v>
+        <v>0.01996184699237347</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001686480327091689</v>
+        <v>0.001448762376303683</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -2073,14 +2320,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NSGA2</t>
+          <t>CCMO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.02912717796862125</v>
+        <v>0.02521666251122951</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001606650305602329</v>
+        <v>0.001042681454501889</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -2097,14 +2344,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CMOEA_MS</t>
+          <t>NSGA2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4426911354064941</v>
+        <v>0.02865700162947178</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02926079494444302</v>
+        <v>0.001308487323502963</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -2125,10 +2372,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.632317328453064</v>
+        <v>0.3793150107376277</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03004240013906058</v>
+        <v>0.3086079015886122</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -2140,25 +2387,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LIRCMOP10</t>
+          <t>LIRCMOP1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GMPEA2</t>
+          <t>CMOEA_MS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0007513625780120492</v>
+        <v>0.4015300750732422</v>
       </c>
       <c r="D7" t="n">
-        <v>9.808017768009037e-06</v>
+        <v>0.06164323789900795</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2169,20 +2416,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PPS</t>
+          <t>GMPEA2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.09230497118551284</v>
+        <v>0.0007153222570195795</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08103944961641975</v>
+        <v>7.534012884963681e-06</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2193,20 +2440,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NSGA2</t>
+          <t>PPS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8653276205062866</v>
+        <v>0.07355670765973628</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08002734242327364</v>
+        <v>0.08881502142295701</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2217,20 +2464,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CCMO</t>
+          <t>NSGA2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9761453747749329</v>
+        <v>0.8341999530792237</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02986896554046775</v>
+        <v>0.07406421124517702</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2241,68 +2488,68 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CMOEA_MS</t>
+          <t>CCMO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.95949649810791</v>
+        <v>0.9792732477188111</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3191573662002578</v>
+        <v>0.02531736389073158</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LIRCMOP11</t>
+          <t>LIRCMOP10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GMPEA2</t>
+          <t>EMCMO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.002530928794294596</v>
+        <v>0.9861522793769837</v>
       </c>
       <c r="D12" t="n">
-        <v>3.553923087240548e-05</v>
+        <v>0.01901264676073326</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LIRCMOP11</t>
+          <t>LIRCMOP10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PPS</t>
+          <t>CMOEA_MS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.06565610151737929</v>
+        <v>5.129658889770508</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0676343179132725</v>
+        <v>0.7674848610383745</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -2313,20 +2560,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CCMO</t>
+          <t>GMPEA2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4612244367599487</v>
+        <v>0.002604237804189324</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00829944241162367</v>
+        <v>3.262497698161479e-05</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2337,20 +2584,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NSGA2</t>
+          <t>PPS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6006245970726013</v>
+        <v>0.1047476457897574</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0592614452310417</v>
+        <v>0.09987711450624835</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2361,92 +2608,92 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CMOEA_MS</t>
+          <t>EMCMO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.796838855743408</v>
+        <v>0.462185674905777</v>
       </c>
       <c r="D16" t="n">
-        <v>0.524820425149655</v>
+        <v>0.004255938890545511</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LIRCMOP12</t>
+          <t>LIRCMOP11</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PPS</t>
+          <t>CCMO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.002942502219229937</v>
+        <v>0.4685392916202545</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0002811135929645431</v>
+        <v>0.009967742158058858</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LIRCMOP12</t>
+          <t>LIRCMOP11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GMPEA2</t>
+          <t>NSGA2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.003101857053115964</v>
+        <v>0.562854015827179</v>
       </c>
       <c r="D18" t="n">
-        <v>2.565150327560271e-05</v>
+        <v>0.06120657053715008</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LIRCMOP12</t>
+          <t>LIRCMOP11</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CCMO</t>
+          <t>CMOEA_MS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2195909261703491</v>
+        <v>4.681234407424927</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06257542836588086</v>
+        <v>1.323685336866306</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2457,20 +2704,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NSGA2</t>
+          <t>PPS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4836200892925263</v>
+        <v>0.002848754497244954</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1006318135354718</v>
+        <v>0.0004262079825742331</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2481,74 +2728,74 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CMOEA_MS</t>
+          <t>GMPEA2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.844680213928223</v>
+        <v>0.003101619426161051</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5110830279988732</v>
+        <v>7.077124141864479e-05</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LIRCMOP13</t>
+          <t>LIRCMOP12</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PPS</t>
+          <t>CCMO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.03508226796984672</v>
+        <v>0.2298202723264694</v>
       </c>
       <c r="D22" t="n">
-        <v>8.104237148946599e-05</v>
+        <v>0.04692116036088669</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LIRCMOP13</t>
+          <t>LIRCMOP12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GMPEA2</t>
+          <t>EMCMO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.03781724646687508</v>
+        <v>0.2536721497774124</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0005345336410495763</v>
+        <v>0.02457975869321111</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LIRCMOP13</t>
+          <t>LIRCMOP12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2557,22 +2804,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.100765001773834</v>
+        <v>0.4935760915279389</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2836268107284851</v>
+        <v>0.09369149082722883</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LIRCMOP13</t>
+          <t>LIRCMOP12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2581,16 +2828,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.107096958160401</v>
+        <v>3.666661596298218</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6997106386163068</v>
+        <v>0.5216599942789369</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2601,26 +2848,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CCMO</t>
+          <t>PPS</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.115829086303711</v>
+        <v>0.03498747646808624</v>
       </c>
       <c r="D26" t="n">
-        <v>1.733691980629109</v>
+        <v>8.439804931741083e-05</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LIRCMOP14</t>
+          <t>LIRCMOP13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2629,118 +2876,118 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.02727760188281536</v>
+        <v>0.0356458455324173</v>
       </c>
       <c r="D27" t="n">
-        <v>8.391557932061084e-05</v>
+        <v>0.0006190188998885437</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LIRCMOP14</t>
+          <t>LIRCMOP13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PPS</t>
+          <t>NSGA2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.03541029766201973</v>
+        <v>1.159763443470001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001329509128076973</v>
+        <v>0.2408159195067375</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LIRCMOP14</t>
+          <t>LIRCMOP13</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NSGA2</t>
+          <t>CCMO</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8362149357795715</v>
+        <v>8.395244407653809</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3129052681855799</v>
+        <v>1.006801390341431</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LIRCMOP14</t>
+          <t>LIRCMOP13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CCMO</t>
+          <t>CMOEA_MS</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8.939119052886962</v>
+        <v>8.403787803649902</v>
       </c>
       <c r="D30" t="n">
-        <v>1.032698840229594</v>
+        <v>0.623456578264389</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LIRCMOP14</t>
+          <t>LIRCMOP13</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CMOEA_MS</t>
+          <t>EMCMO</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.033288955688477</v>
+        <v>8.719701766967773</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9507012729808739</v>
+        <v>1.995043147491019</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LIRCMOP2</t>
+          <t>LIRCMOP14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2749,10 +2996,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.002329346723854542</v>
+        <v>0.02707537971436978</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0001071578138466011</v>
+        <v>3.274246193318078e-05</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2764,19 +3011,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LIRCMOP2</t>
+          <t>LIRCMOP14</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CCMO</t>
+          <t>PPS</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01095623373985291</v>
+        <v>0.03539549335837364</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0009207804390286769</v>
+        <v>0.0001441404785753571</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2788,7 +3035,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LIRCMOP2</t>
+          <t>LIRCMOP14</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2797,10 +3044,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.02497972659766674</v>
+        <v>1.11814112663269</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0009571550902316842</v>
+        <v>0.2567521338739377</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2812,19 +3059,19 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LIRCMOP2</t>
+          <t>LIRCMOP14</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PPS</t>
+          <t>EMCMO</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.2195917846634984</v>
+        <v>7.975516033172608</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2658551373032436</v>
+        <v>1.603619816726465</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2836,7 +3083,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LIRCMOP2</t>
+          <t>LIRCMOP14</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2845,10 +3092,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.227764755487442</v>
+        <v>8.235086917877197</v>
       </c>
       <c r="D36" t="n">
-        <v>0.05123664197216078</v>
+        <v>0.6214593676274781</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2860,7 +3107,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LIRCMOP3</t>
+          <t>LIRCMOP14</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2869,22 +3116,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01294795330613852</v>
+        <v>9.103282928466797</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001356395463223586</v>
+        <v>1.319351561464849</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LIRCMOP3</t>
+          <t>LIRCMOP2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2893,526 +3140,526 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01346764201298356</v>
+        <v>0.002968677785247564</v>
       </c>
       <c r="D38" t="n">
-        <v>0.008678672306511289</v>
+        <v>0.0004608113457548316</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LIRCMOP3</t>
+          <t>LIRCMOP2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CMOEA_MS</t>
+          <t>EMCMO</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.03812474831938743</v>
+        <v>0.009960446134209633</v>
       </c>
       <c r="D39" t="n">
-        <v>0.002835926385603412</v>
+        <v>0.0003523426090175556</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LIRCMOP3</t>
+          <t>LIRCMOP2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NSGA2</t>
+          <t>CCMO</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.03913716226816177</v>
+        <v>0.01202478706836701</v>
       </c>
       <c r="D40" t="n">
-        <v>0.005632443591567544</v>
+        <v>0.0006778360708853107</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LIRCMOP3</t>
+          <t>LIRCMOP2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PPS</t>
+          <t>NSGA2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.6820451974868774</v>
+        <v>0.02303292602300644</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0001496572364865294</v>
+        <v>0.001105730543383202</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LIRCMOP4</t>
+          <t>LIRCMOP2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GMPEA2</t>
+          <t>CMOEA_MS</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.004741512797772884</v>
+        <v>0.1759452521800995</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001794745418235996</v>
+        <v>0.04643255290569912</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LIRCMOP4</t>
+          <t>LIRCMOP2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CCMO</t>
+          <t>PPS</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.01226640921086073</v>
+        <v>0.3451302540488541</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001162694333975831</v>
+        <v>0.2794229082693453</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LIRCMOP4</t>
+          <t>LIRCMOP3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NSGA2</t>
+          <t>GMPEA2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.03859363049268723</v>
+        <v>0.00217602273914963</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007658178184418933</v>
+        <v>0.0004586085197979118</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LIRCMOP4</t>
+          <t>LIRCMOP3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CMOEA_MS</t>
+          <t>EMCMO</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0453864797949791</v>
+        <v>0.0095060708001256</v>
       </c>
       <c r="D45" t="n">
-        <v>0.006724276352794041</v>
+        <v>0.0003597791154573003</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LIRCMOP4</t>
+          <t>LIRCMOP3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PPS</t>
+          <t>CCMO</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.667535936832428</v>
+        <v>0.01112763937562704</v>
       </c>
       <c r="D46" t="n">
-        <v>0.003204282806657662</v>
+        <v>0.0009436213619753591</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LIRCMOP5</t>
+          <t>LIRCMOP3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PPS</t>
+          <t>NSGA2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.001389878732152283</v>
+        <v>0.03632018119096756</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0001274279566574714</v>
+        <v>0.005815651366587737</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LIRCMOP5</t>
+          <t>LIRCMOP3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GMPEA2</t>
+          <t>CMOEA_MS</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.009352036844938993</v>
+        <v>0.04343974441289902</v>
       </c>
       <c r="D48" t="n">
-        <v>0.008010022547039298</v>
+        <v>0.00401023989159472</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LIRCMOP5</t>
+          <t>LIRCMOP3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CCMO</t>
+          <t>PPS</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.3938248515129089</v>
+        <v>0.679198145866394</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07142030159570922</v>
+        <v>0.004355690276324912</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LIRCMOP5</t>
+          <t>LIRCMOP4</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NSGA2</t>
+          <t>GMPEA2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.011008059978485</v>
+        <v>0.004304821649566293</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2608085625783386</v>
+        <v>0.002429029014193622</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LIRCMOP5</t>
+          <t>LIRCMOP4</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CMOEA_MS</t>
+          <t>EMCMO</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10.43761901855469</v>
+        <v>0.009753453731536865</v>
       </c>
       <c r="D51" t="n">
-        <v>1.138981810143325</v>
+        <v>0.0009703293138998341</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LIRCMOP6</t>
+          <t>LIRCMOP4</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PPS</t>
+          <t>CCMO</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.001131247892044485</v>
+        <v>0.01228477172553539</v>
       </c>
       <c r="D52" t="n">
-        <v>6.008232517767126e-05</v>
+        <v>0.001385856431241984</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LIRCMOP6</t>
+          <t>LIRCMOP4</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GMPEA2</t>
+          <t>NSGA2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.004558140458539128</v>
+        <v>0.03995410054922104</v>
       </c>
       <c r="D53" t="n">
-        <v>0.001265992543313012</v>
+        <v>0.003839974005484214</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LIRCMOP6</t>
+          <t>LIRCMOP4</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CCMO</t>
+          <t>CMOEA_MS</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.4168865263462067</v>
+        <v>0.04764378964900971</v>
       </c>
       <c r="D54" t="n">
-        <v>0.007134393981792856</v>
+        <v>0.004123093658055203</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LIRCMOP6</t>
+          <t>LIRCMOP4</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NSGA2</t>
+          <t>PPS</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.6268526792526246</v>
+        <v>0.6681171774864196</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3610937125041623</v>
+        <v>0.009888475617593739</v>
       </c>
       <c r="E55" t="n">
         <v>5</v>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LIRCMOP6</t>
+          <t>LIRCMOP5</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CMOEA_MS</t>
+          <t>PPS</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>10.82662563323975</v>
+        <v>0.001260776678100228</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9515688504256309</v>
+        <v>5.597545110820798e-05</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LIRCMOP7</t>
+          <t>LIRCMOP5</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CCMO</t>
+          <t>GMPEA2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.02187266936525702</v>
+        <v>0.006068343576043844</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01375823630547283</v>
+        <v>0.003242551801980781</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LIRCMOP7</t>
+          <t>LIRCMOP5</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GMPEA2</t>
+          <t>EMCMO</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.0428257828578353</v>
+        <v>0.3325624763965607</v>
       </c>
       <c r="D58" t="n">
-        <v>0.04080262821415154</v>
+        <v>0.05369076939037135</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LIRCMOP7</t>
+          <t>LIRCMOP5</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PPS</t>
+          <t>CCMO</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.08966991305351257</v>
+        <v>0.3772575438022613</v>
       </c>
       <c r="D59" t="n">
-        <v>0.009873097573865036</v>
+        <v>0.06169676655011987</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LIRCMOP7</t>
+          <t>LIRCMOP5</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3421,22 +3668,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.8659186482429504</v>
+        <v>1.133105134963989</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6687014182554156</v>
+        <v>0.1849423598660828</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LIRCMOP7</t>
+          <t>LIRCMOP5</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3445,34 +3692,34 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.727031421661376</v>
+        <v>11.09861488342285</v>
       </c>
       <c r="D61" t="n">
-        <v>1.467866460851062</v>
+        <v>0.5549194894401748</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
       </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LIRCMOP8</t>
+          <t>LIRCMOP6</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GMPEA2</t>
+          <t>PPS</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.04837123416364193</v>
+        <v>0.001018307742197067</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04269073228131005</v>
+        <v>6.955502387414181e-05</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
@@ -3484,19 +3731,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LIRCMOP8</t>
+          <t>LIRCMOP6</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PPS</t>
+          <t>GMPEA2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.07508987784385682</v>
+        <v>0.002803653990849852</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03415993510073276</v>
+        <v>0.000969418192387353</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
@@ -3508,7 +3755,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LIRCMOP8</t>
+          <t>LIRCMOP6</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3517,10 +3764,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.105555135011673</v>
+        <v>0.4295675098896027</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1751272084174163</v>
+        <v>0.01434866508155702</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
@@ -3532,19 +3779,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LIRCMOP8</t>
+          <t>LIRCMOP6</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NSGA2</t>
+          <t>EMCMO</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.5858002662658691</v>
+        <v>0.4431508660316467</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2131860842223079</v>
+        <v>0.01876679878087203</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -3556,19 +3803,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>LIRCMOP8</t>
+          <t>LIRCMOP6</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CMOEA_MS</t>
+          <t>NSGA2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>11.39664459228516</v>
+        <v>0.5107875823974609</v>
       </c>
       <c r="D66" t="n">
-        <v>1.212545779608932</v>
+        <v>0.09231020513463969</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -3580,121 +3827,457 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>LIRCMOP9</t>
+          <t>LIRCMOP6</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GMPEA2</t>
+          <t>CMOEA_MS</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.0008980915648862719</v>
+        <v>9.559450149536133</v>
       </c>
       <c r="D67" t="n">
-        <v>0.000138223811369413</v>
+        <v>1.399594388886367</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>LIRCMOP9</t>
+          <t>LIRCMOP7</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PPS</t>
+          <t>EMCMO</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.367421567440033</v>
+        <v>0.01628313879482448</v>
       </c>
       <c r="D68" t="n">
-        <v>3.441560008242502e-05</v>
+        <v>0.01191497229598978</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>LIRCMOP9</t>
+          <t>LIRCMOP7</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NSGA2</t>
+          <t>CCMO</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.6090855002403259</v>
+        <v>0.02480952478945255</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01578507651757466</v>
+        <v>0.01452776532923901</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LIRCMOP9</t>
+          <t>LIRCMOP7</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CCMO</t>
+          <t>GMPEA2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.6158517599105835</v>
+        <v>0.04535202304832638</v>
       </c>
       <c r="D70" t="n">
-        <v>0.005820992017729263</v>
+        <v>0.03212583392568055</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>LIRCMOP7</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.1059220694005489</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.02608086733583905</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>LIRCMOP7</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>NSGA2</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.4374067068099975</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.2798061137771227</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>LIRCMOP7</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CMOEA_MS</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>9.615943717956544</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.201819589762545</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>LIRCMOP8</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>GMPEA2</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.03165875095874071</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.02326540038284896</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>LIRCMOP8</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.07471892770845442</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.04180577999793657</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>LIRCMOP8</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>EMCMO</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.2025124602019787</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.1812082771057319</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>LIRCMOP8</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CCMO</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.2848136052489281</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.1994926297090818</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>LIRCMOP8</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>NSGA2</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.5562223374843598</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.08941270558076991</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>LIRCMOP8</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CMOEA_MS</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>10.87041435241699</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.389913541932193</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>LIRCMOP9</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>GMPEA2</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0007401292910799384</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3.884575860193957e-05</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>LIRCMOP9</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.3674022078514099</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.597305061676944e-05</v>
+      </c>
+      <c r="E81" t="n">
+        <v>5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>LIRCMOP9</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>NSGA2</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.6101141810417176</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.01546022482294148</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>LIRCMOP9</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>EMCMO</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.6196686148643493</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.009004639789728213</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>LIRCMOP9</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CCMO</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.6216559410095215</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.006601288576118474</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>LIRCMOP9</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>CMOEA_MS</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>6.229160404205322</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9142931112128202</v>
-      </c>
-      <c r="E71" t="n">
-        <v>5</v>
-      </c>
-      <c r="F71" t="n">
-        <v>5</v>
+      <c r="C85" t="n">
+        <v>5.441720867156983</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.637525763801025</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
